--- a/test_i2.xlsx
+++ b/test_i2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/attractfolder/attractfolder/layouts/Arcadeflow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39A3A87F-0247-2C41-90BE-FF953CD77FDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BD4C1C-D0F1-9A45-8DB3-E4C3F06D2D28}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="25500" windowHeight="14900" xr2:uid="{B71500E1-1C46-3F49-A8D8-04652BE77F9B}"/>
   </bookViews>
@@ -134,1327 +134,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$305</c:f>
-              <c:strCache>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>time</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$305</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-200D-A34B-B6F5-C1998B096595}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$305</c:f>
-              <c:strCache>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>time</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$305</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.3125</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.9375</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.875</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.0625</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.6875</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.125</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.375</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.625</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.875</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-200D-A34B-B6F5-C1998B096595}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!#REF!</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$305</c:f>
-              <c:strCache>
-                <c:ptCount val="52"/>
-                <c:pt idx="0">
-                  <c:v>time</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$305</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="304"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.23749999999999993</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.56499999999999972</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0769999999999995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6740999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.2767799999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.8214239999999995</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.2571391999999992</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.605711359999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.8845690879999992</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.1076552703999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.2861242163199993</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.4288993730559998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.5431194984448</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.6344955987558398</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.707596479004672</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.7660771832037376</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.8128617465629899</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.8502893972503918</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.9052315178003134</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.9991852142402511</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.1493481713922007</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.3694785371137606</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.6205828296910081</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.8714662637528061</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.0971730110022451</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.2777384088017962</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.4221907270414373</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.5377525816331499</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.6302020653065199</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.7041616522452161</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.7633293217961725</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.810663457436938</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.8485307659495502</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.8788246127596402</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.9030596902077122</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.9224477521661694</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.9379582017329353</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.9503665613863479</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.9602932491090783</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6.9682345992872623</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.9745876794298098</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.9796701435438475</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.9837361148350778</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-200D-A34B-B6F5-C1998B096595}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2018836367"/>
-        <c:axId val="2045326207"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2018836367"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2045326207"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2045326207"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2018836367"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1645,7 +329,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$306</c:f>
+              <c:f>Sheet1!$E$3:$E$306</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="304"/>
@@ -1671,136 +355,136 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0.12187499999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2</c:v>
+                  <c:v>0.29718749999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5600000000000005</c:v>
+                  <c:v>0.57996874999999948</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0480000000000005</c:v>
+                  <c:v>0.92822187499999931</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6384000000000005</c:v>
+                  <c:v>1.3041496874999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3107200000000006</c:v>
+                  <c:v>1.6737347187499996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0485760000000004</c:v>
+                  <c:v>1.9938612468749994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.83886080000000041</c:v>
+                  <c:v>2.2569751221874994</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.67108864000000035</c:v>
+                  <c:v>2.4562776099687493</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.53687091200000026</c:v>
+                  <c:v>2.5856498489718742</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.42949672960000024</c:v>
+                  <c:v>2.664584864074687</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.3435973836800002</c:v>
+                  <c:v>2.7106263776672184</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.27487790694400016</c:v>
+                  <c:v>2.7395637399004964</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.21990232555520015</c:v>
+                  <c:v>2.765607365910447</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.17592186044416014</c:v>
+                  <c:v>2.7890466293194023</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.14073748835532812</c:v>
+                  <c:v>2.8101419663874623</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.11258999068426251</c:v>
+                  <c:v>2.829127769748716</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.007199254741001E-2</c:v>
+                  <c:v>2.8462149927738443</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0900719925474101</c:v>
+                  <c:v>2.8740934934964599</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6720575940379281</c:v>
+                  <c:v>2.9241841441468139</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3376460752303425</c:v>
+                  <c:v>3.0067657297321326</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.0701168601842741</c:v>
+                  <c:v>3.1310891567589194</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.85609348814741937</c:v>
+                  <c:v>3.2804802410830272</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.68487479051793554</c:v>
+                  <c:v>3.4399322169747242</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.54789983241434848</c:v>
+                  <c:v>3.595938995277252</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.43831986593147881</c:v>
+                  <c:v>3.7363450957495266</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.35065589274518305</c:v>
+                  <c:v>3.8627105861745736</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.28052471419614644</c:v>
+                  <c:v>3.9764395275571163</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.22441977135691715</c:v>
+                  <c:v>4.0787955748014042</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.17953581708553373</c:v>
+                  <c:v>4.1709160173212636</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.143628653668427</c:v>
+                  <c:v>4.2538244155891372</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.11490292293474161</c:v>
+                  <c:v>4.3284419740302233</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.1922338347793286E-2</c:v>
+                  <c:v>4.3955977766272012</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.3537870678234626E-2</c:v>
+                  <c:v>4.4560379989644812</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.8830296542587701E-2</c:v>
+                  <c:v>4.5104341990680332</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.7064237234070161E-2</c:v>
+                  <c:v>4.5593907791612303</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.7651389787256129E-2</c:v>
+                  <c:v>4.6034517012451071</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.0121111829804904E-2</c:v>
+                  <c:v>4.6431065311205959</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.4096889463843925E-2</c:v>
+                  <c:v>4.6787958780085361</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.9277511571075143E-2</c:v>
+                  <c:v>4.7109162902076829</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.5422009256860115E-2</c:v>
+                  <c:v>4.7398246611869146</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2337607405488093E-2</c:v>
+                  <c:v>4.765842195068223</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.8700859243904746E-3</c:v>
+                  <c:v>4.7892579755614006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2038,133 +722,133 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.25E-2</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23749999999999999</c:v>
+                  <c:v>0.12187500000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.56499999999999995</c:v>
+                  <c:v>0.29718750000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0769999999999997</c:v>
+                  <c:v>0.57996875000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6740999999999997</c:v>
+                  <c:v>0.92822187499999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2767799999999996</c:v>
+                  <c:v>1.3041496874999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.8214239999999995</c:v>
+                  <c:v>1.6571271874999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2571391999999992</c:v>
+                  <c:v>1.9456994062499997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.6057113599999995</c:v>
+                  <c:v>2.1638068718749999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.8845690879999992</c:v>
+                  <c:v>2.3059960596874993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.1076552703999996</c:v>
+                  <c:v>2.4005738599687501</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.2861242163199993</c:v>
+                  <c:v>2.4648014114718748</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.4288993730559998</c:v>
+                  <c:v>2.5142137390746875</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.5431194984448</c:v>
+                  <c:v>2.5627923651672182</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.6344955987558389</c:v>
+                  <c:v>2.606513128650497</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.7075964790046712</c:v>
+                  <c:v>2.6458618157854468</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.7660771832037376</c:v>
+                  <c:v>2.6812756342069024</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.8128617465629899</c:v>
+                  <c:v>2.7131480707862123</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.8491634973435502</c:v>
+                  <c:v>2.7405442768775696</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.9020789980611541</c:v>
+                  <c:v>2.7764118755297713</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.9932854987283957</c:v>
+                  <c:v>2.832403727486732</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.1401247993553465</c:v>
+                  <c:v>2.919007407417975</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.3587221397637492</c:v>
+                  <c:v>3.0482397061861155</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.6097259119973142</c:v>
+                  <c:v>3.2033377619074619</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.861654829691008</c:v>
+                  <c:v>3.3692149988866951</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.0893238637528064</c:v>
+                  <c:v>3.5322934989980252</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.2714590910022459</c:v>
+                  <c:v>3.6790641490982234</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.4171672728017972</c:v>
+                  <c:v>3.8111577341884004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.5337338182414362</c:v>
+                  <c:v>3.9300419607695605</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.6269870545931493</c:v>
+                  <c:v>4.037037764692605</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.7015896436745193</c:v>
+                  <c:v>4.1333339882233444</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.7612717149396149</c:v>
+                  <c:v>4.2200005894010104</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.8090173719516933</c:v>
+                  <c:v>4.2980005304609081</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.8472138975613541</c:v>
+                  <c:v>4.3682004774148178</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.8777711180490826</c:v>
+                  <c:v>4.4313804296733368</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>6.9022168944392668</c:v>
+                  <c:v>4.488242386706002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.921773515551414</c:v>
+                  <c:v>4.5394181480354021</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.9374188124411305</c:v>
+                  <c:v>4.5854763332318624</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.949935049952904</c:v>
+                  <c:v>4.6269286999086754</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>6.9599480399623239</c:v>
+                  <c:v>4.6642358299178079</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.9679584319698584</c:v>
+                  <c:v>4.6978122469260271</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.9743667455758871</c:v>
+                  <c:v>4.7280310222334245</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.9794933964607084</c:v>
+                  <c:v>4.755227920010082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,6 +857,375 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2F62-CD42-9DC7-942465CBD875}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2F62-CD42-9DC7-942465CBD875}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2364,46 +1417,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2959,572 +1972,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9E2B95-9C84-AC4B-B66C-7B1AAC20D1B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3545,7 +2006,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3854,17 +2315,17 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G1">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -4203,7 +2664,7 @@
       </c>
       <c r="E10">
         <f>(E9-D10)*$E$1+D10</f>
-        <v>6.25E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -4240,7 +2701,7 @@
       </c>
       <c r="E11">
         <f>(E10-D11)*$E$1+D11</f>
-        <v>0.23749999999999993</v>
+        <v>0.12187499999999996</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -4248,15 +2709,15 @@
       </c>
       <c r="G11">
         <f t="shared" ref="G11:G53" si="4">IF(B11="",G10*$G$1,G10+B11)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I11">
         <f>SUMPRODUCT(H5:H11,triangle)</f>
-        <v>6.25E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="J11">
         <f>IF(B11="",J10,J10+B11)</f>
@@ -4277,7 +2738,7 @@
       </c>
       <c r="E12">
         <f>(E11-D12)*$E$1+D12</f>
-        <v>0.56499999999999972</v>
+        <v>0.29718749999999994</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -4285,15 +2746,15 @@
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>3.2</v>
+        <v>4.05</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>1.7999999999999998</v>
+        <v>0.95000000000000018</v>
       </c>
       <c r="I12">
         <f>SUMPRODUCT(H6:H12,triangle)</f>
-        <v>0.23749999999999999</v>
+        <v>0.12187500000000001</v>
       </c>
       <c r="J12">
         <f>IF(B12="",J11,J11+B12)</f>
@@ -4314,7 +2775,7 @@
       </c>
       <c r="E13">
         <f>(E12-D13)*$E$1+D13</f>
-        <v>1.0769999999999995</v>
+        <v>0.57996874999999948</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -4322,15 +2783,15 @@
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
-        <v>2.5600000000000005</v>
+        <v>3.645</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>2.4399999999999995</v>
+        <v>1.355</v>
       </c>
       <c r="I13">
         <f>SUMPRODUCT(H7:H13,triangle)</f>
-        <v>0.56499999999999995</v>
+        <v>0.29718750000000005</v>
       </c>
       <c r="J13">
         <f>IF(B13="",J12,J12+B13)</f>
@@ -4351,7 +2812,7 @@
       </c>
       <c r="E14">
         <f>(E13-D14)*$E$1+D14</f>
-        <v>1.6740999999999997</v>
+        <v>0.92822187499999931</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -4359,15 +2820,15 @@
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
-        <v>2.0480000000000005</v>
+        <v>3.2805</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>2.9519999999999995</v>
+        <v>1.7195</v>
       </c>
       <c r="I14">
         <f>SUMPRODUCT(H8:H14,triangle)</f>
-        <v>1.0769999999999997</v>
+        <v>0.57996875000000003</v>
       </c>
       <c r="J14">
         <f>IF(B14="",J13,J13+B14)</f>
@@ -4388,7 +2849,7 @@
       </c>
       <c r="E15">
         <f>(E14-D15)*$E$1+D15</f>
-        <v>2.2767799999999996</v>
+        <v>1.3041496874999994</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -4396,15 +2857,15 @@
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
-        <v>1.6384000000000005</v>
+        <v>2.9524500000000002</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>3.3615999999999993</v>
+        <v>2.0475499999999998</v>
       </c>
       <c r="I15">
         <f>SUMPRODUCT(H9:H15,triangle)</f>
-        <v>1.6740999999999997</v>
+        <v>0.92822187499999997</v>
       </c>
       <c r="J15">
         <f>IF(B15="",J14,J14+B15)</f>
@@ -4425,7 +2886,7 @@
       </c>
       <c r="E16">
         <f>(E15-D16)*$E$1+D16</f>
-        <v>2.8214239999999995</v>
+        <v>1.6737347187499996</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -4433,15 +2894,15 @@
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
-        <v>1.3107200000000006</v>
+        <v>2.6572050000000003</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>3.6892799999999992</v>
+        <v>2.3427949999999997</v>
       </c>
       <c r="I16">
         <f>SUMPRODUCT(H10:H16,triangle)</f>
-        <v>2.2767799999999996</v>
+        <v>1.3041496874999998</v>
       </c>
       <c r="J16">
         <f>IF(B16="",J15,J15+B16)</f>
@@ -4452,37 +2913,40 @@
       <c r="A17">
         <v>14</v>
       </c>
+      <c r="B17">
+        <v>-2</v>
+      </c>
       <c r="C17">
         <f>SUM($B$3:B17)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <f>SUMPRODUCT(J11:J17,triangle)</f>
-        <v>5</v>
+        <v>4.875</v>
       </c>
       <c r="E17">
         <f>(E16-D17)*$E$1+D17</f>
-        <v>3.2571391999999992</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <v>1.9938612468749994</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
-        <v>1.0485760000000004</v>
+        <v>0.65720500000000026</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>3.9514239999999994</v>
+        <v>2.3427949999999997</v>
       </c>
       <c r="I17">
         <f>SUMPRODUCT(H11:H17,triangle)</f>
-        <v>2.8214239999999995</v>
+        <v>1.6571271874999998</v>
       </c>
       <c r="J17">
         <f>IF(B17="",J16,J16+B17)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4491,15 +2955,15 @@
       </c>
       <c r="C18">
         <f>SUM($B$3:B18)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <f>SUMPRODUCT(J12:J18,triangle)</f>
-        <v>5</v>
+        <v>4.625</v>
       </c>
       <c r="E18">
         <f>(E17-D18)*$E$1+D18</f>
-        <v>3.605711359999999</v>
+        <v>2.2569751221874994</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -4507,19 +2971,19 @@
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
-        <v>0.83886080000000041</v>
+        <v>0.5914845000000003</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>4.1611391999999991</v>
+        <v>2.4085154999999996</v>
       </c>
       <c r="I18">
         <f>SUMPRODUCT(H12:H18,triangle)</f>
-        <v>3.2571391999999992</v>
+        <v>1.9456994062499997</v>
       </c>
       <c r="J18">
         <f>IF(B18="",J17,J17+B18)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4528,15 +2992,15 @@
       </c>
       <c r="C19">
         <f>SUM($B$3:B19)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <f>SUMPRODUCT(J13:J19,triangle)</f>
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="E19">
         <f>(E18-D19)*$E$1+D19</f>
-        <v>3.8845690879999992</v>
+        <v>2.4562776099687493</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -4544,19 +3008,19 @@
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
-        <v>0.67108864000000035</v>
+        <v>0.53233605000000028</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>4.3289113599999993</v>
+        <v>2.4676639499999995</v>
       </c>
       <c r="I19">
         <f>SUMPRODUCT(H13:H19,triangle)</f>
-        <v>3.6057113599999995</v>
+        <v>2.1638068718749999</v>
       </c>
       <c r="J19">
         <f>IF(B19="",J18,J18+B19)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -4565,15 +3029,15 @@
       </c>
       <c r="C20">
         <f>SUM($B$3:B20)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <f>SUMPRODUCT(J14:J20,triangle)</f>
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="E20">
         <f>(E19-D20)*$E$1+D20</f>
-        <v>4.1076552703999996</v>
+        <v>2.5856498489718742</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -4581,19 +3045,19 @@
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
-        <v>0.53687091200000026</v>
+        <v>0.47910244500000027</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>4.4631290879999996</v>
+        <v>2.5208975549999999</v>
       </c>
       <c r="I20">
         <f>SUMPRODUCT(H14:H20,triangle)</f>
-        <v>3.8845690879999992</v>
+        <v>2.3059960596874993</v>
       </c>
       <c r="J20">
         <f>IF(B20="",J19,J19+B20)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -4602,15 +3066,15 @@
       </c>
       <c r="C21">
         <f>SUM($B$3:B21)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <f>SUMPRODUCT(J15:J21,triangle)</f>
-        <v>5</v>
+        <v>3.375</v>
       </c>
       <c r="E21">
         <f>(E20-D21)*$E$1+D21</f>
-        <v>4.2861242163199993</v>
+        <v>2.664584864074687</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -4618,19 +3082,19 @@
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
-        <v>0.42949672960000024</v>
+        <v>0.43119220050000023</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>4.5705032703999997</v>
+        <v>2.5688077994999996</v>
       </c>
       <c r="I21">
         <f>SUMPRODUCT(H15:H21,triangle)</f>
-        <v>4.1076552703999996</v>
+        <v>2.4005738599687501</v>
       </c>
       <c r="J21">
         <f>IF(B21="",J20,J20+B21)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4639,15 +3103,15 @@
       </c>
       <c r="C22">
         <f>SUM($B$3:B22)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <f>SUMPRODUCT(J16:J22,triangle)</f>
-        <v>5</v>
+        <v>3.125</v>
       </c>
       <c r="E22">
         <f>(E21-D22)*$E$1+D22</f>
-        <v>4.4288993730559998</v>
+        <v>2.7106263776672184</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -4655,19 +3119,19 @@
       </c>
       <c r="G22">
         <f t="shared" si="4"/>
-        <v>0.3435973836800002</v>
+        <v>0.38807298045000022</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>4.6564026163199994</v>
+        <v>2.61192701955</v>
       </c>
       <c r="I22">
         <f>SUMPRODUCT(H16:H22,triangle)</f>
-        <v>4.2861242163199993</v>
+        <v>2.4648014114718748</v>
       </c>
       <c r="J22">
         <f>IF(B22="",J21,J21+B22)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4676,15 +3140,15 @@
       </c>
       <c r="C23">
         <f>SUM($B$3:B23)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <f>SUMPRODUCT(J17:J23,triangle)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <f>(E22-D23)*$E$1+D23</f>
-        <v>4.5431194984448</v>
+        <v>2.7395637399004964</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -4692,19 +3156,19 @@
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
-        <v>0.27487790694400016</v>
+        <v>0.34926568240500022</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>4.7251220930560001</v>
+        <v>2.650734317595</v>
       </c>
       <c r="I23">
         <f>SUMPRODUCT(H17:H23,triangle)</f>
-        <v>4.4288993730559998</v>
+        <v>2.5142137390746875</v>
       </c>
       <c r="J23">
         <f>IF(B23="",J22,J22+B23)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4713,15 +3177,15 @@
       </c>
       <c r="C24">
         <f>SUM($B$3:B24)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <f>SUMPRODUCT(J18:J24,triangle)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <f>(E23-D24)*$E$1+D24</f>
-        <v>4.6344955987558398</v>
+        <v>2.765607365910447</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -4729,19 +3193,19 @@
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
-        <v>0.21990232555520015</v>
+        <v>0.31433911416450022</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>4.7800976744448</v>
+        <v>2.6856608858354996</v>
       </c>
       <c r="I24">
         <f>SUMPRODUCT(H18:H24,triangle)</f>
-        <v>4.5431194984448</v>
+        <v>2.5627923651672182</v>
       </c>
       <c r="J24">
         <f>IF(B24="",J23,J23+B24)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4750,15 +3214,15 @@
       </c>
       <c r="C25">
         <f>SUM($B$3:B25)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <f>SUMPRODUCT(J19:J25,triangle)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <f>(E24-D25)*$E$1+D25</f>
-        <v>4.707596479004672</v>
+        <v>2.7890466293194023</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -4766,19 +3230,19 @@
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
-        <v>0.17592186044416014</v>
+        <v>0.2829052027480502</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>4.8240781395558399</v>
+        <v>2.7170947972519497</v>
       </c>
       <c r="I25">
         <f>SUMPRODUCT(H19:H25,triangle)</f>
-        <v>4.6344955987558389</v>
+        <v>2.606513128650497</v>
       </c>
       <c r="J25">
         <f>IF(B25="",J24,J24+B25)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -4787,15 +3251,15 @@
       </c>
       <c r="C26">
         <f>SUM($B$3:B26)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <f>SUMPRODUCT(J20:J26,triangle)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <f>(E25-D26)*$E$1+D26</f>
-        <v>4.7660771832037376</v>
+        <v>2.8101419663874623</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -4803,19 +3267,19 @@
       </c>
       <c r="G26">
         <f t="shared" si="4"/>
-        <v>0.14073748835532812</v>
+        <v>0.2546146824732452</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>4.8592625116446717</v>
+        <v>2.7453853175267549</v>
       </c>
       <c r="I26">
         <f>SUMPRODUCT(H20:H26,triangle)</f>
-        <v>4.7075964790046712</v>
+        <v>2.6458618157854468</v>
       </c>
       <c r="J26">
         <f>IF(B26="",J25,J25+B26)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -4824,15 +3288,15 @@
       </c>
       <c r="C27">
         <f>SUM($B$3:B27)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <f>SUMPRODUCT(J21:J27,triangle)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <f>(E26-D27)*$E$1+D27</f>
-        <v>4.8128617465629899</v>
+        <v>2.829127769748716</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -4840,19 +3304,19 @@
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
-        <v>0.11258999068426251</v>
+        <v>0.22915321422592069</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>4.8874100093157375</v>
+        <v>2.7708467857740793</v>
       </c>
       <c r="I27">
         <f>SUMPRODUCT(H21:H27,triangle)</f>
-        <v>4.7660771832037376</v>
+        <v>2.6812756342069024</v>
       </c>
       <c r="J27">
         <f>IF(B27="",J26,J26+B27)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -4861,15 +3325,15 @@
       </c>
       <c r="C28">
         <f>SUM($B$3:B28)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <f>SUMPRODUCT(J22:J28,triangle)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <f>(E27-D28)*$E$1+D28</f>
-        <v>4.8502893972503918</v>
+        <v>2.8462149927738443</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -4877,19 +3341,19 @@
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
-        <v>9.007199254741001E-2</v>
+        <v>0.20623789280332863</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>4.9099280074525904</v>
+        <v>2.7937621071966712</v>
       </c>
       <c r="I28">
         <f>SUMPRODUCT(H22:H28,triangle)</f>
-        <v>4.8128617465629899</v>
+        <v>2.7131480707862123</v>
       </c>
       <c r="J28">
         <f>IF(B28="",J27,J27+B28)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4901,35 +3365,35 @@
       </c>
       <c r="C29">
         <f>SUM($B$3:B29)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <f>SUMPRODUCT(J23:J29,triangle)</f>
-        <v>5.125</v>
+        <v>3.125</v>
       </c>
       <c r="E29">
         <f>(E28-D29)*$E$1+D29</f>
-        <v>4.9052315178003134</v>
+        <v>2.8740934934964599</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>2.0900719925474101</v>
+        <v>2.2062378928033288</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>4.9099280074525904</v>
+        <v>2.7937621071966712</v>
       </c>
       <c r="I29">
         <f>SUMPRODUCT(H23:H29,triangle)</f>
-        <v>4.8491634973435502</v>
+        <v>2.7405442768775696</v>
       </c>
       <c r="J29">
         <f>IF(B29="",J28,J28+B29)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -4938,15 +3402,15 @@
       </c>
       <c r="C30">
         <f>SUM($B$3:B30)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <f>SUMPRODUCT(J24:J30,triangle)</f>
-        <v>5.375</v>
+        <v>3.375</v>
       </c>
       <c r="E30">
         <f>(E29-D30)*$E$1+D30</f>
-        <v>4.9991852142402511</v>
+        <v>2.9241841441468139</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -4954,19 +3418,19 @@
       </c>
       <c r="G30">
         <f t="shared" si="4"/>
-        <v>1.6720575940379281</v>
+        <v>1.9856141035229959</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>5.3279424059620721</v>
+        <v>3.0143858964770041</v>
       </c>
       <c r="I30">
         <f>SUMPRODUCT(H24:H30,triangle)</f>
-        <v>4.9020789980611541</v>
+        <v>2.7764118755297713</v>
       </c>
       <c r="J30">
         <f>IF(B30="",J29,J29+B30)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4975,15 +3439,15 @@
       </c>
       <c r="C31">
         <f>SUM($B$3:B31)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <f>SUMPRODUCT(J25:J31,triangle)</f>
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="E31">
         <f>(E30-D31)*$E$1+D31</f>
-        <v>5.1493481713922007</v>
+        <v>3.0067657297321326</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -4991,19 +3455,19 @@
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
-        <v>1.3376460752303425</v>
+        <v>1.7870526931706965</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>5.6623539247696577</v>
+        <v>3.2129473068293035</v>
       </c>
       <c r="I31">
         <f>SUMPRODUCT(H25:H31,triangle)</f>
-        <v>4.9932854987283957</v>
+        <v>2.832403727486732</v>
       </c>
       <c r="J31">
         <f>IF(B31="",J30,J30+B31)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -5012,15 +3476,15 @@
       </c>
       <c r="C32">
         <f>SUM($B$3:B32)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <f>SUMPRODUCT(J26:J32,triangle)</f>
-        <v>6.25</v>
+        <v>4.25</v>
       </c>
       <c r="E32">
         <f>(E31-D32)*$E$1+D32</f>
-        <v>5.3694785371137606</v>
+        <v>3.1310891567589194</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
@@ -5028,19 +3492,19 @@
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
-        <v>1.0701168601842741</v>
+        <v>1.6083474238536268</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>5.9298831398157255</v>
+        <v>3.3916525761463729</v>
       </c>
       <c r="I32">
         <f>SUMPRODUCT(H26:H32,triangle)</f>
-        <v>5.1401247993553465</v>
+        <v>2.919007407417975</v>
       </c>
       <c r="J32">
         <f>IF(B32="",J31,J31+B32)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -5049,15 +3513,15 @@
       </c>
       <c r="C33">
         <f>SUM($B$3:B33)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <f>SUMPRODUCT(J27:J33,triangle)</f>
-        <v>6.625</v>
+        <v>4.625</v>
       </c>
       <c r="E33">
         <f>(E32-D33)*$E$1+D33</f>
-        <v>5.6205828296910081</v>
+        <v>3.2804802410830272</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -5065,19 +3529,19 @@
       </c>
       <c r="G33">
         <f t="shared" si="4"/>
-        <v>0.85609348814741937</v>
+        <v>1.4475126814682642</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>6.1439065118525811</v>
+        <v>3.5524873185317358</v>
       </c>
       <c r="I33">
         <f>SUMPRODUCT(H27:H33,triangle)</f>
-        <v>5.3587221397637492</v>
+        <v>3.0482397061861155</v>
       </c>
       <c r="J33">
         <f>IF(B33="",J32,J32+B33)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -5086,15 +3550,15 @@
       </c>
       <c r="C34">
         <f>SUM($B$3:B34)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <f>SUMPRODUCT(J28:J34,triangle)</f>
-        <v>6.875</v>
+        <v>4.875</v>
       </c>
       <c r="E34">
         <f>(E33-D34)*$E$1+D34</f>
-        <v>5.8714662637528061</v>
+        <v>3.4399322169747242</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -5102,19 +3566,19 @@
       </c>
       <c r="G34">
         <f t="shared" si="4"/>
-        <v>0.68487479051793554</v>
+        <v>1.3027614133214378</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>6.3151252094820647</v>
+        <v>3.6972385866785622</v>
       </c>
       <c r="I34">
         <f>SUMPRODUCT(H28:H34,triangle)</f>
-        <v>5.6097259119973142</v>
+        <v>3.2033377619074619</v>
       </c>
       <c r="J34">
         <f>IF(B34="",J33,J33+B34)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -5123,15 +3587,15 @@
       </c>
       <c r="C35">
         <f>SUM($B$3:B35)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <f>SUMPRODUCT(J29:J35,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E35">
         <f>(E34-D35)*$E$1+D35</f>
-        <v>6.0971730110022451</v>
+        <v>3.595938995277252</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -5139,19 +3603,19 @@
       </c>
       <c r="G35">
         <f t="shared" si="4"/>
-        <v>0.54789983241434848</v>
+        <v>1.172485271989294</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>6.4521001675856517</v>
+        <v>3.8275147280107058</v>
       </c>
       <c r="I35">
         <f>SUMPRODUCT(H29:H35,triangle)</f>
-        <v>5.861654829691008</v>
+        <v>3.3692149988866951</v>
       </c>
       <c r="J35">
         <f>IF(B35="",J34,J34+B35)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -5160,15 +3624,15 @@
       </c>
       <c r="C36">
         <f>SUM($B$3:B36)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <f>SUMPRODUCT(J30:J36,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E36">
         <f>(E35-D36)*$E$1+D36</f>
-        <v>6.2777384088017962</v>
+        <v>3.7363450957495266</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -5176,19 +3640,19 @@
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
-        <v>0.43831986593147881</v>
+        <v>1.0552367447903646</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>6.5616801340685216</v>
+        <v>3.9447632552096357</v>
       </c>
       <c r="I36">
         <f>SUMPRODUCT(H30:H36,triangle)</f>
-        <v>6.0893238637528064</v>
+        <v>3.5322934989980252</v>
       </c>
       <c r="J36">
         <f>IF(B36="",J35,J35+B36)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -5197,15 +3661,15 @@
       </c>
       <c r="C37">
         <f>SUM($B$3:B37)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <f>SUMPRODUCT(J31:J37,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E37">
         <f>(E36-D37)*$E$1+D37</f>
-        <v>6.4221907270414373</v>
+        <v>3.8627105861745736</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -5213,19 +3677,19 @@
       </c>
       <c r="G37">
         <f t="shared" si="4"/>
-        <v>0.35065589274518305</v>
+        <v>0.94971307031132812</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>6.6493441072548167</v>
+        <v>4.0502869296886717</v>
       </c>
       <c r="I37">
         <f>SUMPRODUCT(H31:H37,triangle)</f>
-        <v>6.2714590910022459</v>
+        <v>3.6790641490982234</v>
       </c>
       <c r="J37">
         <f>IF(B37="",J36,J36+B37)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -5234,15 +3698,15 @@
       </c>
       <c r="C38">
         <f>SUM($B$3:B38)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <f>SUMPRODUCT(J32:J38,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E38">
         <f>(E37-D38)*$E$1+D38</f>
-        <v>6.5377525816331499</v>
+        <v>3.9764395275571163</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -5250,19 +3714,19 @@
       </c>
       <c r="G38">
         <f t="shared" si="4"/>
-        <v>0.28052471419614644</v>
+        <v>0.85474176328019535</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>6.7194752858038536</v>
+        <v>4.1452582367198048</v>
       </c>
       <c r="I38">
         <f>SUMPRODUCT(H32:H38,triangle)</f>
-        <v>6.4171672728017972</v>
+        <v>3.8111577341884004</v>
       </c>
       <c r="J38">
         <f>IF(B38="",J37,J37+B38)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -5271,15 +3735,15 @@
       </c>
       <c r="C39">
         <f>SUM($B$3:B39)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <f>SUMPRODUCT(J33:J39,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E39">
         <f>(E38-D39)*$E$1+D39</f>
-        <v>6.6302020653065199</v>
+        <v>4.0787955748014042</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -5287,19 +3751,19 @@
       </c>
       <c r="G39">
         <f t="shared" si="4"/>
-        <v>0.22441977135691715</v>
+        <v>0.76926758695217579</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>6.7755802286430828</v>
+        <v>4.2307324130478241</v>
       </c>
       <c r="I39">
         <f>SUMPRODUCT(H33:H39,triangle)</f>
-        <v>6.5337338182414362</v>
+        <v>3.9300419607695605</v>
       </c>
       <c r="J39">
         <f>IF(B39="",J38,J38+B39)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -5308,15 +3772,15 @@
       </c>
       <c r="C40">
         <f>SUM($B$3:B40)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <f>SUMPRODUCT(J34:J40,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <f>(E39-D40)*$E$1+D40</f>
-        <v>6.7041616522452161</v>
+        <v>4.1709160173212636</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -5324,19 +3788,19 @@
       </c>
       <c r="G40">
         <f t="shared" si="4"/>
-        <v>0.17953581708553373</v>
+        <v>0.6923408282569582</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>6.8204641829144661</v>
+        <v>4.3076591717430421</v>
       </c>
       <c r="I40">
         <f>SUMPRODUCT(H34:H40,triangle)</f>
-        <v>6.6269870545931493</v>
+        <v>4.037037764692605</v>
       </c>
       <c r="J40">
         <f>IF(B40="",J39,J39+B40)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -5345,15 +3809,15 @@
       </c>
       <c r="C41">
         <f>SUM($B$3:B41)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <f>SUMPRODUCT(J35:J41,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <f>(E40-D41)*$E$1+D41</f>
-        <v>6.7633293217961725</v>
+        <v>4.2538244155891372</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -5361,19 +3825,19 @@
       </c>
       <c r="G41">
         <f t="shared" si="4"/>
-        <v>0.143628653668427</v>
+        <v>0.62310674543126243</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>6.8563713463315734</v>
+        <v>4.3768932545687376</v>
       </c>
       <c r="I41">
         <f>SUMPRODUCT(H35:H41,triangle)</f>
-        <v>6.7015896436745193</v>
+        <v>4.1333339882233444</v>
       </c>
       <c r="J41">
         <f>IF(B41="",J40,J40+B41)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -5382,15 +3846,15 @@
       </c>
       <c r="C42">
         <f>SUM($B$3:B42)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <f>SUMPRODUCT(J36:J42,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E42">
         <f>(E41-D42)*$E$1+D42</f>
-        <v>6.810663457436938</v>
+        <v>4.3284419740302233</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -5398,19 +3862,19 @@
       </c>
       <c r="G42">
         <f t="shared" si="4"/>
-        <v>0.11490292293474161</v>
+        <v>0.56079607088813621</v>
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>6.8850970770652582</v>
+        <v>4.4392039291118639</v>
       </c>
       <c r="I42">
         <f>SUMPRODUCT(H36:H42,triangle)</f>
-        <v>6.7612717149396149</v>
+        <v>4.2200005894010104</v>
       </c>
       <c r="J42">
         <f>IF(B42="",J41,J41+B42)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -5419,15 +3883,15 @@
       </c>
       <c r="C43">
         <f>SUM($B$3:B43)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <f>SUMPRODUCT(J37:J43,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E43">
         <f>(E42-D43)*$E$1+D43</f>
-        <v>6.8485307659495502</v>
+        <v>4.3955977766272012</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -5435,19 +3899,19 @@
       </c>
       <c r="G43">
         <f t="shared" si="4"/>
-        <v>9.1922338347793286E-2</v>
+        <v>0.50471646379932256</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>6.9080776616522064</v>
+        <v>4.4952835362006773</v>
       </c>
       <c r="I43">
         <f>SUMPRODUCT(H37:H43,triangle)</f>
-        <v>6.8090173719516933</v>
+        <v>4.2980005304609081</v>
       </c>
       <c r="J43">
         <f>IF(B43="",J42,J42+B43)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -5456,15 +3920,15 @@
       </c>
       <c r="C44">
         <f>SUM($B$3:B44)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <f>SUMPRODUCT(J38:J44,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E44">
         <f>(E43-D44)*$E$1+D44</f>
-        <v>6.8788246127596402</v>
+        <v>4.4560379989644812</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -5472,19 +3936,19 @@
       </c>
       <c r="G44">
         <f t="shared" si="4"/>
-        <v>7.3537870678234626E-2</v>
+        <v>0.45424481741939032</v>
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>6.9264621293217656</v>
+        <v>4.54575518258061</v>
       </c>
       <c r="I44">
         <f>SUMPRODUCT(H38:H44,triangle)</f>
-        <v>6.8472138975613541</v>
+        <v>4.3682004774148178</v>
       </c>
       <c r="J44">
         <f>IF(B44="",J43,J43+B44)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -5493,15 +3957,15 @@
       </c>
       <c r="C45">
         <f>SUM($B$3:B45)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <f>SUMPRODUCT(J39:J45,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E45">
         <f>(E44-D45)*$E$1+D45</f>
-        <v>6.9030596902077122</v>
+        <v>4.5104341990680332</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -5509,19 +3973,19 @@
       </c>
       <c r="G45">
         <f t="shared" si="4"/>
-        <v>5.8830296542587701E-2</v>
+        <v>0.4088203356774513</v>
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>6.9411697034574127</v>
+        <v>4.5911796643225484</v>
       </c>
       <c r="I45">
         <f>SUMPRODUCT(H39:H45,triangle)</f>
-        <v>6.8777711180490826</v>
+        <v>4.4313804296733368</v>
       </c>
       <c r="J45">
         <f>IF(B45="",J44,J44+B45)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -5530,15 +3994,15 @@
       </c>
       <c r="C46">
         <f>SUM($B$3:B46)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <f>SUMPRODUCT(J40:J46,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E46">
         <f>(E45-D46)*$E$1+D46</f>
-        <v>6.9224477521661694</v>
+        <v>4.5593907791612303</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="0"/>
@@ -5546,19 +4010,19 @@
       </c>
       <c r="G46">
         <f t="shared" si="4"/>
-        <v>4.7064237234070161E-2</v>
+        <v>0.36793830210970618</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>6.9529357627659296</v>
+        <v>4.6320616978902942</v>
       </c>
       <c r="I46">
         <f>SUMPRODUCT(H40:H46,triangle)</f>
-        <v>6.9022168944392668</v>
+        <v>4.488242386706002</v>
       </c>
       <c r="J46">
         <f>IF(B46="",J45,J45+B46)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -5567,15 +4031,15 @@
       </c>
       <c r="C47">
         <f>SUM($B$3:B47)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <f>SUMPRODUCT(J41:J47,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E47">
         <f>(E46-D47)*$E$1+D47</f>
-        <v>6.9379582017329353</v>
+        <v>4.6034517012451071</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
@@ -5583,19 +4047,19 @@
       </c>
       <c r="G47">
         <f t="shared" si="4"/>
-        <v>3.7651389787256129E-2</v>
+        <v>0.33114447189873558</v>
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>6.9623486102127439</v>
+        <v>4.6688555281012647</v>
       </c>
       <c r="I47">
         <f>SUMPRODUCT(H41:H47,triangle)</f>
-        <v>6.921773515551414</v>
+        <v>4.5394181480354021</v>
       </c>
       <c r="J47">
         <f>IF(B47="",J46,J46+B47)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -5604,15 +4068,15 @@
       </c>
       <c r="C48">
         <f>SUM($B$3:B48)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <f>SUMPRODUCT(J42:J48,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E48">
         <f>(E47-D48)*$E$1+D48</f>
-        <v>6.9503665613863479</v>
+        <v>4.6431065311205959</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
@@ -5620,19 +4084,19 @@
       </c>
       <c r="G48">
         <f t="shared" si="4"/>
-        <v>3.0121111829804904E-2</v>
+        <v>0.29803002470886203</v>
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
-        <v>6.9698788881701947</v>
+        <v>4.7019699752911377</v>
       </c>
       <c r="I48">
         <f>SUMPRODUCT(H42:H48,triangle)</f>
-        <v>6.9374188124411305</v>
+        <v>4.5854763332318624</v>
       </c>
       <c r="J48">
         <f>IF(B48="",J47,J47+B48)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -5641,15 +4105,15 @@
       </c>
       <c r="C49">
         <f>SUM($B$3:B49)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <f>SUMPRODUCT(J43:J49,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E49">
         <f>(E48-D49)*$E$1+D49</f>
-        <v>6.9602932491090783</v>
+        <v>4.6787958780085361</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="0"/>
@@ -5657,19 +4121,19 @@
       </c>
       <c r="G49">
         <f t="shared" si="4"/>
-        <v>2.4096889463843925E-2</v>
+        <v>0.26822702223797584</v>
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
-        <v>6.975903110536156</v>
+        <v>4.7317729777620245</v>
       </c>
       <c r="I49">
         <f>SUMPRODUCT(H43:H49,triangle)</f>
-        <v>6.949935049952904</v>
+        <v>4.6269286999086754</v>
       </c>
       <c r="J49">
         <f>IF(B49="",J48,J48+B49)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -5678,15 +4142,15 @@
       </c>
       <c r="C50">
         <f>SUM($B$3:B50)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <f>SUMPRODUCT(J44:J50,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E50">
         <f>(E49-D50)*$E$1+D50</f>
-        <v>6.9682345992872623</v>
+        <v>4.7109162902076829</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="0"/>
@@ -5694,19 +4158,19 @@
       </c>
       <c r="G50">
         <f t="shared" si="4"/>
-        <v>1.9277511571075143E-2</v>
+        <v>0.24140432001417828</v>
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>6.980722488428925</v>
+        <v>4.758595679985822</v>
       </c>
       <c r="I50">
         <f>SUMPRODUCT(H44:H50,triangle)</f>
-        <v>6.9599480399623239</v>
+        <v>4.6642358299178079</v>
       </c>
       <c r="J50">
         <f>IF(B50="",J49,J49+B50)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -5715,15 +4179,15 @@
       </c>
       <c r="C51">
         <f>SUM($B$3:B51)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <f>SUMPRODUCT(J45:J51,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E51">
         <f>(E50-D51)*$E$1+D51</f>
-        <v>6.9745876794298098</v>
+        <v>4.7398246611869146</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="0"/>
@@ -5731,19 +4195,19 @@
       </c>
       <c r="G51">
         <f t="shared" si="4"/>
-        <v>1.5422009256860115E-2</v>
+        <v>0.21726388801276045</v>
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>6.9845779907431398</v>
+        <v>4.7827361119872398</v>
       </c>
       <c r="I51">
         <f>SUMPRODUCT(H45:H51,triangle)</f>
-        <v>6.9679584319698584</v>
+        <v>4.6978122469260271</v>
       </c>
       <c r="J51">
         <f>IF(B51="",J50,J50+B51)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -5752,15 +4216,15 @@
       </c>
       <c r="C52">
         <f>SUM($B$3:B52)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D52">
         <f>SUMPRODUCT(J46:J52,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E52">
         <f>(E51-D52)*$E$1+D52</f>
-        <v>6.9796701435438475</v>
+        <v>4.765842195068223</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="0"/>
@@ -5768,19 +4232,19 @@
       </c>
       <c r="G52">
         <f t="shared" si="4"/>
-        <v>1.2337607405488093E-2</v>
+        <v>0.19553749921148442</v>
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>6.9876623925945118</v>
+        <v>4.8044625007885156</v>
       </c>
       <c r="I52">
         <f>SUMPRODUCT(H46:H52,triangle)</f>
-        <v>6.9743667455758871</v>
+        <v>4.7280310222334245</v>
       </c>
       <c r="J52">
         <f>IF(B52="",J51,J51+B52)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5789,15 +4253,15 @@
       </c>
       <c r="C53">
         <f>SUM($B$3:B53)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D53">
         <f>SUMPRODUCT(J47:J53,triangle)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E53">
         <f>(E52-D53)*$E$1+D53</f>
-        <v>6.9837361148350778</v>
+        <v>4.7892579755614006</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="0"/>
@@ -5805,19 +4269,19 @@
       </c>
       <c r="G53">
         <f t="shared" si="4"/>
-        <v>9.8700859243904746E-3</v>
+        <v>0.17598374929033597</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>6.9901299140756095</v>
+        <v>4.824016250709664</v>
       </c>
       <c r="I53">
         <f>SUMPRODUCT(H47:H53,triangle)</f>
-        <v>6.9794933964607084</v>
+        <v>4.755227920010082</v>
       </c>
       <c r="J53">
         <f>IF(B53="",J52,J52+B53)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
